--- a/pred_ohlcv/54_21/2020-01-12 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BCD ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>6720.820745430001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6477.373345430001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-342.7760540599974</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-344.8960540599974</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2022.958545940003</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1790.958645940003</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2078.903645940003</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2055.877345940003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2154.736045940002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2154.736045940002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>21.74694594000266</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-54.40375405999734</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-56.40375405999734</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-854.150136989997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-854.150136989997</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1014.150136989997</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1012.150136989997</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8827.849863010004</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>25891.01435705</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>14692.39193593</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>12581.13473593</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11563.92963593</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>10937.58133593</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>10937.58133593</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64554.8196916</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>64545.3096916</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>64347.3054916</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>67608.23185389</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>67608.23185389</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>67952.53185389</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>99337.49529452001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>124692.71759452</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>139648.59629452</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>185446.52691227</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>177185.01341227</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>177209.01341227</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>173987.53571227</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>172766.31391227</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>173409.62371227</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>172409.62371227</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>150022.02671227</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>142729.33711227</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>115721.1941128901</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>117635.0994117701</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>116435.9957117701</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>123521.9231117701</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>123212.5318117701</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>125986.3515117701</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>146171.3393689201</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>139834.8534689201</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>144574.7943689201</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>144328.1883689201</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>131984.6051689201</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>128121.5294689201</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>130511.5294689201</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>135986.6805689201</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>136215.3628689201</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>253106.63567729</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>190854.31667729</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>191209.08287729</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>189597.14627729</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>189624.14627729</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>184906.70987729</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>177475.0876264001</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>174560.8876264</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>174560.8876264</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>176087.3538264</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>66974.64832640006</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>49601.10442640005</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>48601.10442640005</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>48602.40442640005</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>43983.55542640005</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>49650.92982640005</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>38498.91282640005</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>40578.91282640005</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>40503.51282640005</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>40507.34282640005</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>39033.90272640005</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>39035.30272640006</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BCD ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>6720.820745430001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>6477.373345430001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-342.7760540599974</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-344.8960540599974</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2022.958545940003</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-55.61475405999734</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8827.849863010004</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>25891.01435705</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>14692.39193593</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>12581.13473593</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11563.92963593</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>10937.58133593</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>10937.58133593</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64554.8196916</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>64545.3096916</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>64347.3054916</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>67608.23185389</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>67608.23185389</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>67108.23185389</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>67952.53185389</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>99337.49529452001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>124692.71759452</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>139648.59629452</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>177370.45817452</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>179272.35417452</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>194647.08957452</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>196744.43887452</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>174094.20217452</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>190281.27747452</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>185446.52691227</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>177185.01341227</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>177209.01341227</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>173987.53571227</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>172766.31391227</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>173409.62371227</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>172409.62371227</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>115721.1941128901</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>117635.0994117701</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>116435.9957117701</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>123521.9231117701</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>123212.5318117701</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>125986.3515117701</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>153301.6352689201</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>146171.3393689201</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>139834.8534689201</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>144574.7943689201</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>144328.1883689201</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>131984.6051689201</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>128121.5294689201</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>130511.5294689201</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>135986.6805689201</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>136215.3628689201</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>253106.63567729</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>190854.31667729</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>191209.08287729</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>189597.14627729</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>66974.64832640006</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>49601.10442640005</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>48601.10442640005</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>48602.40442640005</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>43983.55542640005</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>49650.92982640005</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>38498.91282640005</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>40578.91282640005</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>40503.51282640005</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>40507.34282640005</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>39033.90272640005</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>39035.30272640006</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
